--- a/medicine/Enfance/Les_Joyeux_Jolivet/Les_Joyeux_Jolivet.xlsx
+++ b/medicine/Enfance/Les_Joyeux_Jolivet/Les_Joyeux_Jolivet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Joyeux Jolivet (titre original : The Happy Hollisters) est une série américaine de trente-trois romans pour la jeunesse écrite par Jerry West et parue aux États-Unis de 1953 à 1970. 
@@ -513,7 +525,9 @@
           <t>Le thème de la série</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Jolivet (The Hollisters en VO) sont une famille de classe moyenne habitant Pine Lake à Shoreham, dans l’État américain de Vermont. Jeunes et beaux, les parents ont cinq enfants âgés de quatre à douze ans : deux garçons et trois filles. Ensemble, ils aiment résoudre les énigmes diverses et variées rencontrées au gré de leurs vacances ou voyages.
 </t>
@@ -544,7 +558,9 @@
           <t>L'auteur de la série</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Jerry West, le nom de l’auteur, est en réalité le nom de plume d’un collectif d’écrivains travaillant pour la célèbre société d’édition Statemayer Syndicate, qui avait déjà produit des séries à succès telles que Alice (sous le pseudonyme de Caroline Quine) ou Les Frères Hardy (sous le pseudonyme de Franklin W. Dixon). 
 Le véritable auteur des Joyeux Jolivet est Andrew E. Svenson (1910–1975). Il a écrit tous les titres de la série en s'inspirant de ses propres enfants (quatre filles et deux garçons) et des événements survenus dans sa famille. Sa fille, Jane (Svenson) Kossmann, raconte que son père a repris dans les romans les vacances de Jane au camp de scout ou les excursions de ses frères. Selon Jane, le chien Zip était vraiment le chien colley de la famille (dont le vrai nom était Lassie) tout comme l'était le chat Nez blanc. Même le voisin Joe Brill est inspiré d'une personne de leur entourage, ainsi que Mme Farber, le professeur de Jane.
@@ -576,7 +592,9 @@
           <t>Les personnages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>M. Jolivet, le père, tient un bazar dont il est le propriétaire.
 Mme Jolivet aide ses enfants à résoudre des énigmes en leur fournissant des astuces.
@@ -616,7 +634,9 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">"Les Jolivet au Far West", paru sous le titre anglais "The Happy Hollisters and the Cow-Boy Mystery", en 1961 fut traduit en 1re édition française en 1971, autour d'une intrigue relatant l'histoire des cow boys du gang des pillards qui auraient caché un coffre de pièces d'or volé à une diligence dans la Vallée secrète (Nevada), au cœur des Monts Ruby.
 </t>
@@ -647,7 +667,9 @@
           <t>Titres parus en France</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Dix-huit titres sur trente-trois ont paru en France, tous illustrés par Maurice Paulin.
 Les Jolivet à la grande hutte (The Happy Hollisters, 1953) 1re édition française : 1966, coll. Nouv. Bib. rose no 218, traduction de Suzanne Pairault. Réédition en 1976.
@@ -667,9 +689,43 @@
 Le Ranch des Jolivet (The Happy Hollisters at Mystery Mountain, 1954) 1re édition française : 1974, coll. Bib. rose, traduction de Lisa Rosenbaum.
 Les Jolivet au Colorado (The Happy Hollisters and the Indian Treasure, 1953) 1re édition française : 1974, coll. Bib. rose, traduction de Lisa Rosenbaum.
 Les Jolivet et le cheval fantôme (The Happy Hollisters and the Ghost Horse Mystery, 1965) 1re édition française : 1975, coll. Bib. rose, traduction de Marie-Noëlle Grimbert.
-Les Jolivet trouvent le filon (The Happy Hollisters and the Castle Rock Mystery, 1963) 1re édition française : 1976, coll. Bib. rose, traduction de Lisa Rosenbaum.
-Titres inédits
-Quinze titres inédits en France :
+Les Jolivet trouvent le filon (The Happy Hollisters and the Castle Rock Mystery, 1963) 1re édition française : 1976, coll. Bib. rose, traduction de Lisa Rosenbaum.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Les_Joyeux_Jolivet</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Joyeux_Jolivet</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Titres parus en France</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Titres inédits</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Quinze titres inédits en France :
 1953 : The Happy Hollisters at Sea Gull Beach
 1954 : The Happy Hollisters at Snowflake camp
 1954 : The Happy Hollisters and the Trading Post Mystery
@@ -688,31 +744,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Les_Joyeux_Jolivet</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Les_Joyeux_Jolivet</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Parution à l'étranger</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Douze volumes des Joyeux Jolivet ont été traduits en suédois sous le titre : Festliga Franssons. La série complète a été traduite en espagnol et commercialisée en Espagne et dans plusieurs pays d’Amérique latine sous le titre : Los Hollister. Tous les volumes ont également paru en Norvège (titre : Lykkebarna). Au moins onze volumes ont été adaptés en Allemagne sous le titre : Die fröhlichen Falkenbergs, avec pour nom d’auteur : Gerhard West.
 </t>
